--- a/functions/menus/bardrinks.xlsx
+++ b/functions/menus/bardrinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aknar\Documents\GitHub\mall-restaurant\functions\menus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2D2235-744B-4E0E-A50A-3A99906D432C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E681D47F-4156-4E78-8F24-2ED20C03C5F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9368492B-7E17-47C5-A814-03528FA33168}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9368492B-7E17-47C5-A814-03528FA33168}"/>
   </bookViews>
   <sheets>
     <sheet name="FOR THE TEETOTALLERS" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="BEER" sheetId="6" r:id="rId6"/>
     <sheet name="WHISKY" sheetId="7" r:id="rId7"/>
     <sheet name="SCOTCH" sheetId="8" r:id="rId8"/>
+    <sheet name="Bottle" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>MINERAL WATER (1 LTR.)</t>
   </si>
@@ -263,6 +264,21 @@
   </si>
   <si>
     <t>CAMINO 30 ml</t>
+  </si>
+  <si>
+    <t>Whisky</t>
+  </si>
+  <si>
+    <t>Rum</t>
+  </si>
+  <si>
+    <t>Scotch</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>CL</t>
   </si>
 </sst>
 </file>
@@ -626,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09536465-D12A-4950-8B53-9E1B98592CF7}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,6 +756,14 @@
       </c>
       <c r="B13" s="1">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1230,12 +1254,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C09325-F95E-4D8A-B4B9-597B9400116F}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1432,4 +1457,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC1BC-BFF3-4B39-BD8F-5C6B8BAB862D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>1600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/functions/menus/bardrinks.xlsx
+++ b/functions/menus/bardrinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E681D47F-4156-4E78-8F24-2ED20C03C5F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4539705-6318-4015-808C-E371639C8888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9368492B-7E17-47C5-A814-03528FA33168}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>MINERAL WATER (1 LTR.)</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>CL</t>
+  </si>
+  <si>
+    <t>SOFT DRINKS (300ml)</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09536465-D12A-4950-8B53-9E1B98592CF7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +766,14 @@
         <v>81</v>
       </c>
       <c r="B14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1">
         <v>20</v>
       </c>
     </row>

--- a/functions/menus/bardrinks.xlsx
+++ b/functions/menus/bardrinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4539705-6318-4015-808C-E371639C8888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F4539705-6318-4015-808C-E371639C8888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C81B3B53-50BB-4B09-BDDA-DA3EC0496692}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9368492B-7E17-47C5-A814-03528FA33168}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9368492B-7E17-47C5-A814-03528FA33168}"/>
   </bookViews>
   <sheets>
     <sheet name="FOR THE TEETOTALLERS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>MINERAL WATER (1 LTR.)</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>SOFT DRINKS (300ml)</t>
+  </si>
+  <si>
+    <t>LONDON HIGH 60 ML</t>
+  </si>
+  <si>
+    <t>LONDON HIGH 30 ML</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09536465-D12A-4950-8B53-9E1B98592CF7}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -942,10 +948,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857F3943-761B-4FD9-8956-FE29E0CD0E91}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1007,22 @@
         <v>38</v>
       </c>
       <c r="B6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
         <v>55</v>
       </c>
     </row>

--- a/functions/menus/bardrinks.xlsx
+++ b/functions/menus/bardrinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F4539705-6318-4015-808C-E371639C8888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C81B3B53-50BB-4B09-BDDA-DA3EC0496692}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF37DB48-E803-4EC4-B0C6-CC55187F6E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9368492B-7E17-47C5-A814-03528FA33168}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{9368492B-7E17-47C5-A814-03528FA33168}"/>
   </bookViews>
   <sheets>
     <sheet name="FOR THE TEETOTALLERS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="BEER" sheetId="6" r:id="rId6"/>
     <sheet name="WHISKY" sheetId="7" r:id="rId7"/>
     <sheet name="SCOTCH" sheetId="8" r:id="rId8"/>
-    <sheet name="Bottle" sheetId="9" r:id="rId9"/>
+    <sheet name="BOTTEL" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>MINERAL WATER (1 LTR.)</t>
   </si>
@@ -92,9 +92,6 @@
     <t>MILLER</t>
   </si>
   <si>
-    <t>GIUSBERG</t>
-  </si>
-  <si>
     <t>BUDWISER</t>
   </si>
   <si>
@@ -266,18 +263,12 @@
     <t>CAMINO 30 ml</t>
   </si>
   <si>
-    <t>Whisky</t>
-  </si>
-  <si>
     <t>Rum</t>
   </si>
   <si>
     <t>Scotch</t>
   </si>
   <si>
-    <t>Vodka</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
@@ -288,6 +279,42 @@
   </si>
   <si>
     <t>LONDON HIGH 30 ML</t>
+  </si>
+  <si>
+    <t>Whisky2</t>
+  </si>
+  <si>
+    <t>Vodka1</t>
+  </si>
+  <si>
+    <t>Vodka2</t>
+  </si>
+  <si>
+    <t>MONSTER ENERGY DRINK</t>
+  </si>
+  <si>
+    <t>KING FISHER ULTRA</t>
+  </si>
+  <si>
+    <t>TUTY FRUTY ICE CREAM</t>
+  </si>
+  <si>
+    <t>GINSBURG</t>
+  </si>
+  <si>
+    <t>GINSBERG</t>
+  </si>
+  <si>
+    <t>WHISKY</t>
+  </si>
+  <si>
+    <t>whisky</t>
+  </si>
+  <si>
+    <t>ROYAL STAG</t>
+  </si>
+  <si>
+    <t>BLENDER/SIGNATUR</t>
   </si>
 </sst>
 </file>
@@ -651,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09536465-D12A-4950-8B53-9E1B98592CF7}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +796,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1">
         <v>20</v>
@@ -777,10 +804,26 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -791,46 +834,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8272E-C89B-479C-B6F7-FB5048EEFA62}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2">
         <v>120</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
         <v>210</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>125</v>
@@ -843,63 +889,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CC62BF-E73C-49A7-AF04-80DB648650BA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2">
         <v>130</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
         <v>65</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2">
-        <v>95</v>
-      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>60</v>
@@ -925,7 +974,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2">
         <v>200</v>
@@ -934,7 +983,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2">
         <v>150</v>
@@ -948,45 +997,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857F3943-761B-4FD9-8956-FE29E0CD0E91}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2">
         <v>80</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>80</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -994,33 +1043,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>55</v>
@@ -1036,7 +1085,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1143,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2">
         <v>320</v>
@@ -1102,7 +1151,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>350</v>
@@ -1110,7 +1159,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>350</v>
@@ -1118,7 +1167,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>350</v>
@@ -1131,130 +1180,137 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA295F6-4955-4A42-A78D-2969107AE383}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2">
         <v>65</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
         <v>90</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B9" s="2">
+        <v>110</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B11" s="2">
         <v>110</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B13" s="2">
         <v>110</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2">
-        <v>110</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2">
-        <v>140</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1262,21 +1318,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B16" s="2">
         <v>85</v>
       </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,41 +1343,44 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C09325-F95E-4D8A-B4B9-597B9400116F}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2">
         <v>385</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2">
         <v>250</v>
@@ -1327,59 +1388,59 @@
       <c r="C3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2">
-        <v>220</v>
+        <v>385</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2">
         <v>300</v>
@@ -1387,64 +1448,64 @@
       <c r="C9" s="1"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2">
         <v>140</v>
@@ -1453,10 +1514,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -1465,22 +1526,22 @@
         <v>72</v>
       </c>
       <c r="B18" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2">
         <v>140</v>
@@ -1494,17 +1555,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC1BC-BFF3-4B39-BD8F-5C6B8BAB862D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>1000</v>
@@ -1512,7 +1573,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>1500</v>
@@ -1520,15 +1581,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>1200</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>1500</v>
@@ -1536,10 +1597,130 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
